--- a/files_ex/list.xlsx
+++ b/files_ex/list.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -451,6 +451,30 @@
         <v>79</v>
       </c>
       <c r="B3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>79</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>79</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>79</v>
+      </c>
+      <c r="B6" t="n">
         <v>66</v>
       </c>
     </row>
